--- a/ExcelFolder/XH.xlsx
+++ b/ExcelFolder/XH.xlsx
@@ -3116,7 +3116,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3142,8 +3142,17 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3467,92 +3476,114 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="9.5" style="14" customWidth="1"/>
-    <col min="2" max="2" width="7" style="6" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="30.125" style="6" customWidth="1"/>
-    <col min="5" max="6" width="9" style="6"/>
-    <col min="7" max="7" width="28.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="34" style="6" customWidth="1"/>
-    <col min="9" max="9" width="45.875" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="6"/>
+    <col min="2" max="2" width="7" style="15" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="30.125" style="15" customWidth="1"/>
+    <col min="5" max="6" width="9" style="15"/>
+    <col min="7" max="7" width="28.5" style="15" customWidth="1"/>
+    <col min="8" max="8" width="34" style="15" customWidth="1"/>
+    <col min="9" max="9" width="45.875" style="15" customWidth="1"/>
+    <col min="10" max="21" width="9" style="15"/>
+    <col min="22" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" ht="28.5" spans="1:2">
-      <c r="A1" s="15" t="s">
+    <row r="1" s="12" customFormat="1" ht="28.5" spans="1:21">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="15" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3560,64 +3591,64 @@
       <c r="A3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="15" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3625,134 +3656,151 @@
       <c r="A4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="15">
         <v>1</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="15">
         <v>2</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="15">
         <v>3</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="15">
         <v>4</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="15">
         <v>5</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="15">
         <v>6</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="15">
         <v>7</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="15">
         <v>8</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="15">
         <v>9</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4" s="15">
         <v>10</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4" s="15">
         <v>11</v>
       </c>
     </row>
-    <row r="5" s="13" customFormat="1" spans="1:4">
+    <row r="5" s="13" customFormat="1" spans="1:21">
       <c r="A5" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="18" t="s">
         <v>56</v>
       </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
     </row>
     <row r="6" spans="2:21">
-      <c r="B6" s="6">
+      <c r="B6" s="15">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="15">
         <v>1</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="15">
         <v>2</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="15">
         <v>3</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="15">
         <v>4</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="15">
         <v>5</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="15">
         <v>6</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="15">
         <v>7</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="15">
         <v>3.444</v>
       </c>
-      <c r="T6" s="6" t="s">
+      <c r="T6" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="15">
         <v>34.22</v>
       </c>
     </row>
